--- a/output/intraday/riepilogo_intraday_2026-01-30.xlsx
+++ b/output/intraday/riepilogo_intraday_2026-01-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,49 +503,49 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>TimeHigh</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TimeLow</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>OpenPM</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>HighPM</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>LowPM</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>ClosePM</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>VolumePM</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>TimePMH</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>TimeHigh</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>TimeLow</t>
-        </is>
-      </c>
       <c r="Y1" t="inlineStr">
         <is>
           <t>High_1m</t>
@@ -563,590 +563,552 @@
       </c>
       <c r="AB1" t="inlineStr">
         <is>
+          <t>Close_1m</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Close_5m</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>High_15m</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Low_15m</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Volume_15m</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Close_15m</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
         <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Close_30m</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>High_45m</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Low_45m</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Volume_45m</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Close_45m</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
         <is>
           <t>High_60m</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Low_60m</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Volume_60m</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Close_1030</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Close_60m</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Close_1100</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Close_90m</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
         <is>
           <t>High_120m</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Low_120m</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Volume_120m</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Close_1200</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>Close_120m</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
         <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Close_1400</t>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>Close_240m</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DCX</t>
+          <t>SER</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>46051</v>
       </c>
       <c r="C2" t="n">
-        <v>30.07</v>
+        <v>41.18</v>
       </c>
       <c r="D2" t="n">
-        <v>1570000</v>
+        <v>37750000</v>
       </c>
       <c r="E2" t="n">
-        <v>360000</v>
+        <v>5390000</v>
       </c>
       <c r="F2" t="n">
-        <v>380000</v>
+        <v>10540000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>-7.81%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.46</v>
+        <v>49.43</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>12.48</v>
+        <v>1.58</v>
       </c>
       <c r="K2" t="n">
-        <v>4.01</v>
+        <v>3.78</v>
       </c>
       <c r="L2" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>20795639</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2026-01-29 09:51:00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2026-01-29 10:56:00</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W2" t="n">
+        <v>45041031</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2026-01-29 06:39:00</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
         <v>3.96</v>
       </c>
-      <c r="M2" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7560745</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2026-01-29 07:41:00</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>121563451</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2026-01-29 13:49:00</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2026-01-29 09:30:00</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.36</v>
-      </c>
       <c r="Z2" t="n">
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="AA2" t="n">
-        <v>124830</v>
+        <v>806226</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="AD2" t="n">
-        <v>388425</v>
+        <v>3.63</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.55</v>
+        <v>2079093</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.97</v>
+        <v>3.74</v>
       </c>
       <c r="AG2" t="n">
-        <v>28517767</v>
+        <v>3.96</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.55</v>
+        <v>3.56</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.97</v>
+        <v>3819756</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42994648</v>
+        <v>3.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.3</v>
+        <v>4.08</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.55</v>
+        <v>3.56</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.97</v>
+        <v>8668625</v>
       </c>
       <c r="AN2" t="n">
-        <v>57454308</v>
+        <v>3.81</v>
       </c>
       <c r="AO2" t="n">
-        <v>4.2</v>
+        <v>4.08</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.55</v>
+        <v>3.56</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.97</v>
+        <v>10322863</v>
       </c>
       <c r="AR2" t="n">
-        <v>57709720</v>
+        <v>3.7</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.36</v>
+        <v>4.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.73</v>
+        <v>3.56</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.97</v>
+        <v>11421403</v>
       </c>
       <c r="AV2" t="n">
-        <v>58575449</v>
+        <v>3.85</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.18</v>
+        <v>4.08</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>13969577</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>15161271</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>17679490</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SER</t>
+          <t>XHLD</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>46051</v>
       </c>
       <c r="C3" t="n">
-        <v>41.18</v>
+        <v>67.45</v>
       </c>
       <c r="D3" t="n">
-        <v>37760000</v>
+        <v>9420000</v>
       </c>
       <c r="E3" t="n">
-        <v>5390000</v>
+        <v>1410000</v>
       </c>
       <c r="F3" t="n">
-        <v>10540000</v>
+        <v>2440000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-7.81%</t>
+          <t>-25.76%</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>49.43</v>
+        <v>52.68</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>0.35</v>
       </c>
       <c r="J3" t="n">
-        <v>1.58</v>
+        <v>7.41</v>
       </c>
       <c r="K3" t="n">
-        <v>3.78</v>
+        <v>4.38</v>
       </c>
       <c r="L3" t="n">
-        <v>3.84</v>
+        <v>4.26</v>
       </c>
       <c r="M3" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>45947706</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2026-01-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2026-01-29 11:56:00</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10265320</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2026-01-29 08:37:00</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Z3" t="n">
         <v>4.08</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="T3" t="n">
-        <v>45041031</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2026-01-29 06:39:00</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>20795639</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>2026-01-29 09:51:00</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2026-01-29 10:56:00</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3.81</v>
-      </c>
       <c r="AA3" t="n">
-        <v>806226</v>
+        <v>693324</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.96</v>
+        <v>4.27</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.63</v>
+        <v>4.49</v>
       </c>
       <c r="AD3" t="n">
-        <v>2079093</v>
+        <v>4.07</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.08</v>
+        <v>2482951</v>
       </c>
       <c r="AF3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AH3" t="n">
         <v>3.56</v>
       </c>
-      <c r="AG3" t="n">
-        <v>8668625</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.08</v>
-      </c>
       <c r="AI3" t="n">
-        <v>3.56</v>
+        <v>4936119</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11421403</v>
+        <v>3.66</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.85</v>
+        <v>4.49</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.08</v>
+        <v>3.48</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.41</v>
+        <v>6391983</v>
       </c>
       <c r="AN3" t="n">
-        <v>13969577</v>
+        <v>3.65</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.47</v>
+        <v>4.49</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.08</v>
+        <v>3.36</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.41</v>
+        <v>23069508</v>
       </c>
       <c r="AR3" t="n">
-        <v>15161271</v>
+        <v>3.36</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.66</v>
+        <v>4.49</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.08</v>
+        <v>3.23</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.41</v>
+        <v>23840247</v>
       </c>
       <c r="AV3" t="n">
-        <v>17679490</v>
+        <v>3.29</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XHLD</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46051</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9420000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1410000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2440000</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-25.76%</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="N4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>24927599</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>25576559</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="BF3" t="n">
         <v>2.65</v>
       </c>
-      <c r="O4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>10265320</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>2026-01-29 08:37:00</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>45947706</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>2026-01-29 09:30:00</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2026-01-29 11:56:00</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>693324</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2482951</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6391983</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23840247</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>24927599</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="BG3" t="n">
+        <v>27110879</v>
+      </c>
+      <c r="BH3" t="n">
         <v>3.13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>25576559</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>27110879</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.03</v>
       </c>
     </row>
   </sheetData>
